--- a/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG CẬP NHẬT VÀ THEO DÕI CÁC VẤN ĐỀ PHÁT SING TRONG KÌ CẦN XỬ LÝ.xlsx
+++ b/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG CẬP NHẬT VÀ THEO DÕI CÁC VẤN ĐỀ PHÁT SING TRONG KÌ CẦN XỬ LÝ.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimhuong\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\2. Xử lý các vấn đề Kỹ thuật\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A677C8C-7170-495C-A321-8AE6E9190617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470" activeTab="1" xr2:uid="{38542B1F-5E3E-4DD3-8792-8C5C28561821}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cập nhật các vấn đề phát sinh" sheetId="1" r:id="rId1"/>
     <sheet name="theo dõi các vấn đề phát sinh" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -49,28 +49,12 @@
     <t>Hoàn thành</t>
   </si>
   <si>
-    <t>Tìm hiểu về tiêu chuẩn cho các chất cần đặt hàng trên trang chủ BS</t>
-  </si>
-  <si>
-    <t>Đọc và trả lời email
-phongkythuat@hungxuong.com.vn</t>
-  </si>
-  <si>
-    <t>Đang thực hiện</t>
-  </si>
-  <si>
-    <t>Xem video và các file hướng dẫn cách sử dụng TOOL mới của BS vừa cập nhật</t>
-  </si>
-  <si>
     <t>Danh sách MRSL của Huge Bamboo.</t>
   </si>
   <si>
     <t>Cung cấp mẫu sản phẩm để Huge Bamboo test tiêu chuẩn</t>
   </si>
   <si>
-    <t>Mỗi ngày</t>
-  </si>
-  <si>
     <t>Đọc và sửa lỗi chính tả cho bản cam kết tuân thủ MRSL cho chất hoạt động bề mặt của công ty Hùng Xương</t>
   </si>
   <si>
@@ -83,12 +67,6 @@
     <t>Tìm CTPT và số cas cho các chất theo yêu cầu của phòng tổng vụ:</t>
   </si>
   <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
     <t>10.1</t>
   </si>
   <si>
@@ -122,19 +100,10 @@
     <t>S.Chính</t>
   </si>
   <si>
-    <t>Băng</t>
-  </si>
-  <si>
     <t>Huyền</t>
   </si>
   <si>
-    <t>S. Hùng</t>
-  </si>
-  <si>
     <t>3.5</t>
-  </si>
-  <si>
-    <t>Viết KEY 210 (Các thông tin cơ bản về người phụ trách vấn đề BS)</t>
   </si>
   <si>
     <t>C.Trân</t>
@@ -229,11 +198,101 @@
   <si>
     <t>PTV</t>
   </si>
+  <si>
+    <t>Làm COA xuất xưởng của nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Ân</t>
+  </si>
+  <si>
+    <t>Kiểm tra nhận hàng máy đo nồng độ cồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thùy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dịch và cung cấp các nội dung trong nhãn sản phẩm </t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3 phiếu</t>
+  </si>
+  <si>
+    <t>4 phiếu</t>
+  </si>
+  <si>
+    <t>5 phiếu</t>
+  </si>
+  <si>
+    <t>H-71 (NCC08) Urea (HX)</t>
+  </si>
+  <si>
+    <t>H-49 (NCC08) Sodium sulfite (HX)</t>
+  </si>
+  <si>
+    <t>H-07 (NCC08) Sodium gluconate (HX)</t>
+  </si>
+  <si>
+    <t>H-23 (NCC08) Sodium carbonate (HX)</t>
+  </si>
+  <si>
+    <t>H-24 (NCC08) Sodium sulfate anhydrous (HX)</t>
+  </si>
+  <si>
+    <t>H-424 (NCC47) Acrylic ester copolymer (HX)</t>
+  </si>
+  <si>
+    <t>H-189 (NCC08) Sodium tripoly phosphate (HX)</t>
+  </si>
+  <si>
+    <t>H-26 (NCC27) Isopropyl alcohol (HX)</t>
+  </si>
+  <si>
+    <t>H-489 (NCC09) LEK-20 (HX)</t>
+  </si>
+  <si>
+    <t>H-525 (NCC29) NP-915E (HX)</t>
+  </si>
+  <si>
+    <t>H-585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-583 </t>
+  </si>
+  <si>
+    <t>H-587</t>
+  </si>
+  <si>
+    <t>H-628</t>
+  </si>
+  <si>
+    <t>H-339 (NCC06) Potassium persulfate (QX)</t>
+  </si>
+  <si>
+    <t>Huntex OW-222</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -291,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -470,11 +529,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,9 +642,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +655,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,9 +724,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,6 +742,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,6 +785,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,1166 +1109,1184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4F6AA-AAED-45E2-8DE4-E65EC53D7109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="1" max="2" width="5.35546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="37"/>
+      <c r="B8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="50"/>
       <c r="D8" s="5">
         <v>44867</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="5">
         <v>44868</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40">
         <v>4</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
+      <c r="B11" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="30">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" s="8">
         <v>44867</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="42"/>
+      <c r="B13" s="31">
+        <v>4.2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="11">
         <v>44870</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+        <v>23</v>
+      </c>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="30"/>
+      <c r="B14" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="44"/>
       <c r="D14" s="5">
         <v>44870</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="30"/>
+      <c r="B15" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="44"/>
       <c r="D15" s="5">
         <v>44872</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="31"/>
+      <c r="B16" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="45"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="32"/>
+      <c r="B17" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="46"/>
       <c r="D17" s="5">
         <v>44881</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="38"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="5">
+        <v>44881</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2094,7 +2294,7 @@
       <c r="E151" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -2105,6 +2305,9 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -2117,73 +2320,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCEAA10-2ED2-4C70-983F-7D983D51F296}">
-  <dimension ref="A1:F165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="1" max="2" width="5.35546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.35546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2191,603 +2394,732 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="37"/>
+      <c r="B8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="50"/>
       <c r="D8" s="5">
         <v>44867</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="42"/>
+      <c r="B13" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="66">
         <v>3</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B14" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C14" s="52"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="67"/>
+      <c r="B15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
         <v>44866</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8">
-        <v>44868</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8">
-        <v>44869</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="15" t="s">
+      <c r="E15" s="70" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8">
-        <v>44872</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8">
-        <v>44873</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="15" t="s">
-        <v>41</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="67"/>
+      <c r="B16" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="20">
-        <v>44875</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D16" s="8">
+        <v>44868</v>
+      </c>
+      <c r="E16" s="71"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="15" t="s">
-        <v>42</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="67"/>
+      <c r="B17" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="20">
-        <v>45976</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44869</v>
+      </c>
+      <c r="E17" s="71"/>
       <c r="F17" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="67"/>
+      <c r="B18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44872</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="67"/>
+      <c r="B19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44873</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="68"/>
+      <c r="B20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="20">
+        <v>44875</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="68"/>
+      <c r="B21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="20">
+        <v>44879</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="68"/>
+      <c r="B22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20">
+        <v>44880</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="68"/>
+      <c r="B23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="20">
+        <v>44882</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="68"/>
+      <c r="B24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="20">
+        <v>44886</v>
+      </c>
+      <c r="E24" s="71"/>
+      <c r="F24" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="68"/>
+      <c r="B25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="20">
+        <v>44888</v>
+      </c>
+      <c r="E25" s="72"/>
+      <c r="F25" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="68"/>
+      <c r="B26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="69"/>
+      <c r="B27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="63">
         <v>4</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="5">
-        <v>44869</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>5</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>6</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
-        <v>7</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8">
-        <v>44867</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="11">
-        <v>44870</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>8</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="5">
-        <v>44870</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>9</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="5">
-        <v>44872</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
-        <v>10</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="44"/>
+      <c r="B28" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="64"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="11">
-        <v>44873</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="16" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="63"/>
+      <c r="B29" s="27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44867</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
-        <v>11</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="5">
-        <v>44879</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="17" t="s">
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="A30" s="63"/>
+      <c r="B30" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="11">
+        <v>44870</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
-        <v>12</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="45"/>
       <c r="D31" s="5">
-        <v>44881</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>36</v>
+        <v>44870</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="32" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="17">
+        <v>6</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="5">
+        <v>44872</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="17">
+        <v>7</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="65"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="6"/>
+      <c r="B34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="11">
+        <v>44873</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="17">
+        <v>8</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="5">
+        <v>44881</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="61">
+        <v>9</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="38"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="62"/>
+      <c r="B37" s="37">
+        <v>9.1</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="5">
+        <v>44882</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="62"/>
+      <c r="B38" s="37">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="58">
+        <v>44883</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="62"/>
+      <c r="B39" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="62"/>
+      <c r="B40" s="37">
+        <v>9.4</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="59"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="62"/>
+      <c r="B41" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="62"/>
+      <c r="B42" s="37">
+        <v>9.6</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="62"/>
+      <c r="B43" s="37">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="57">
+        <v>44884</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="62"/>
+      <c r="B44" s="37">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="62"/>
+      <c r="B45" s="37">
+        <v>9.9</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="62"/>
+      <c r="B46" s="37">
+        <v>10</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="32">
+        <v>44886</v>
+      </c>
+      <c r="E46" s="56"/>
+      <c r="F46" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="62"/>
+      <c r="B47" s="37">
+        <v>10.1</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="32">
+        <v>44889</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="62"/>
+      <c r="B48" s="37">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="62"/>
+      <c r="B49" s="37">
+        <v>10.3</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="62"/>
+      <c r="B50" s="37">
+        <v>10.4</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="62"/>
+      <c r="B51" s="37">
+        <v>10.5</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <v>10</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="39"/>
+      <c r="D52" s="5">
+        <v>44881</v>
+      </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <v>11</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="32"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="57">
+        <v>44886</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2795,7 +3127,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2803,7 +3135,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2811,7 +3143,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2819,7 +3151,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2827,7 +3159,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2835,7 +3167,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2843,7 +3175,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2851,7 +3183,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2859,7 +3191,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2867,7 +3199,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2875,7 +3207,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2883,7 +3215,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2891,7 +3223,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2899,7 +3231,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2907,7 +3239,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2915,7 +3247,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2923,7 +3255,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2931,7 +3263,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2939,7 +3271,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2947,7 +3279,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2955,7 +3287,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2963,7 +3295,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2971,7 +3303,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2979,7 +3311,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2987,7 +3319,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2995,7 +3327,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3003,7 +3335,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3011,7 +3343,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3019,7 +3351,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3027,7 +3359,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3035,7 +3367,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3043,7 +3375,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3051,7 +3383,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3059,7 +3391,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3067,7 +3399,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3075,7 +3407,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3083,7 +3415,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3091,7 +3423,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3099,7 +3431,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3107,7 +3439,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3115,7 +3447,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3123,7 +3455,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3131,7 +3463,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3139,7 +3471,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3147,7 +3479,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3155,7 +3487,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3163,7 +3495,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3171,7 +3503,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3179,7 +3511,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3187,7 +3519,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3195,7 +3527,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3203,7 +3535,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3211,7 +3543,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3219,7 +3551,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3227,7 +3559,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3235,7 +3567,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3243,7 +3575,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3251,7 +3583,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3259,7 +3591,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3267,7 +3599,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3275,7 +3607,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3283,7 +3615,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3291,7 +3623,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3299,7 +3631,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3307,7 +3639,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3315,7 +3647,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3323,7 +3655,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3331,7 +3663,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3339,7 +3671,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3347,7 +3679,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3355,7 +3687,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3363,7 +3695,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3371,7 +3703,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3379,7 +3711,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3387,7 +3719,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3395,7 +3727,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3403,7 +3735,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3411,7 +3743,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3419,7 +3751,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3427,7 +3759,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3435,7 +3767,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3443,7 +3775,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3451,7 +3783,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3459,7 +3791,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3467,7 +3799,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3475,7 +3807,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3483,7 +3815,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3491,7 +3823,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3499,7 +3831,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3507,7 +3839,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3515,7 +3847,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3523,7 +3855,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3531,7 +3863,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3539,7 +3871,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3547,7 +3879,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3555,7 +3887,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3563,7 +3895,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3571,7 +3903,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3579,7 +3911,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3587,7 +3919,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3595,7 +3927,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3603,7 +3935,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3611,7 +3943,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3619,7 +3951,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3627,7 +3959,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3635,7 +3967,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3643,7 +3975,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3651,7 +3983,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3659,7 +3991,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3667,28 +3999,188 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B21:C21"/>
+  <mergeCells count="28">
+    <mergeCell ref="E15:E25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A14:A27"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E37:E51"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D48:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG CẬP NHẬT VÀ THEO DÕI CÁC VẤN ĐỀ PHÁT SING TRONG KÌ CẦN XỬ LÝ.xlsx
+++ b/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG CẬP NHẬT VÀ THEO DÕI CÁC VẤN ĐỀ PHÁT SING TRONG KÌ CẦN XỬ LÝ.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimhuong\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\2. Xử lý các vấn đề Kỹ thuật\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\2. Xử lý các vấn đề Kỹ thuật\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26830A-6051-4D79-92F4-9900922EC266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cập nhật các vấn đề phát sinh" sheetId="1" r:id="rId1"/>
     <sheet name="theo dõi các vấn đề phát sinh" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -288,11 +288,80 @@
   <si>
     <t>Huntex OW-222</t>
   </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>9.13</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -584,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,12 +760,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,46 +814,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -775,25 +850,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,81 +1181,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.35546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
@@ -1191,14 +1263,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="5">
         <v>44867</v>
       </c>
@@ -1206,14 +1278,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="5">
         <v>44868</v>
       </c>
@@ -1221,32 +1293,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40">
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
         <v>4</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
       <c r="B12" s="30">
         <v>4.0999999999999996</v>
       </c>
@@ -1260,8 +1332,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
       <c r="B13" s="31">
         <v>4.2</v>
       </c>
@@ -1276,14 +1348,14 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>5</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="5">
         <v>44870</v>
       </c>
@@ -1292,14 +1364,14 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="5">
         <v>44872</v>
       </c>
@@ -1308,28 +1380,28 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="5">
         <v>44881</v>
       </c>
@@ -1337,956 +1409,956 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="5">
         <v>44881</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="32"/>
       <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2295,16 +2367,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
@@ -2313,6 +2375,16 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2320,73 +2392,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.35546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="1" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.35546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2394,14 +2466,14 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
@@ -2412,14 +2484,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="5">
         <v>44867</v>
       </c>
@@ -2430,14 +2502,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="40">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
         <v>2</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>40</v>
@@ -2446,60 +2518,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
-      <c r="B10" s="25">
-        <v>2.1</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="41"/>
-      <c r="B11" s="25">
-        <v>2.2000000000000002</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="25">
-        <v>2.2999999999999998</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="42"/>
-      <c r="B13" s="25">
-        <v>2.4</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="66">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="59">
         <v>3</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="67"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
       <c r="B15" s="27" t="s">
         <v>14</v>
       </c>
@@ -2509,15 +2581,15 @@
       <c r="D15" s="8">
         <v>44866</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="56" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="60"/>
       <c r="B16" s="27" t="s">
         <v>15</v>
       </c>
@@ -2527,13 +2599,13 @@
       <c r="D16" s="8">
         <v>44868</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="67"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
       <c r="B17" s="27" t="s">
         <v>16</v>
       </c>
@@ -2543,13 +2615,13 @@
       <c r="D17" s="8">
         <v>44869</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="67"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
       <c r="B18" s="27" t="s">
         <v>17</v>
       </c>
@@ -2559,13 +2631,13 @@
       <c r="D18" s="8">
         <v>44872</v>
       </c>
-      <c r="E18" s="71"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="60"/>
       <c r="B19" s="27" t="s">
         <v>25</v>
       </c>
@@ -2575,13 +2647,13 @@
       <c r="D19" s="8">
         <v>44873</v>
       </c>
-      <c r="E19" s="71"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="68"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
       <c r="B20" s="27" t="s">
         <v>31</v>
       </c>
@@ -2591,13 +2663,13 @@
       <c r="D20" s="20">
         <v>44875</v>
       </c>
-      <c r="E20" s="71"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="68"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
       <c r="B21" s="27" t="s">
         <v>32</v>
       </c>
@@ -2607,13 +2679,13 @@
       <c r="D21" s="20">
         <v>44879</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="68"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
       <c r="B22" s="27" t="s">
         <v>44</v>
       </c>
@@ -2623,13 +2695,13 @@
       <c r="D22" s="20">
         <v>44880</v>
       </c>
-      <c r="E22" s="71"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="68"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
       <c r="B23" s="27" t="s">
         <v>45</v>
       </c>
@@ -2639,13 +2711,13 @@
       <c r="D23" s="20">
         <v>44882</v>
       </c>
-      <c r="E23" s="71"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
       <c r="B24" s="27" t="s">
         <v>46</v>
       </c>
@@ -2655,13 +2727,13 @@
       <c r="D24" s="20">
         <v>44886</v>
       </c>
-      <c r="E24" s="71"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
       <c r="B25" s="27" t="s">
         <v>47</v>
       </c>
@@ -2671,13 +2743,13 @@
       <c r="D25" s="20">
         <v>44888</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="61"/>
       <c r="B26" s="27" t="s">
         <v>48</v>
       </c>
@@ -2686,8 +2758,8 @@
       <c r="E26" s="20"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="69"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
       <c r="B27" s="27" t="s">
         <v>49</v>
       </c>
@@ -2696,22 +2768,22 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="63">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="65">
         <v>4</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="63"/>
-      <c r="B29" s="27">
-        <v>4.0999999999999996</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
@@ -2726,10 +2798,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.4">
-      <c r="A30" s="63"/>
-      <c r="B30" s="29">
-        <v>4.2</v>
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
+      <c r="B30" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>8</v>
@@ -2744,14 +2816,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>5</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="5">
         <v>44870</v>
       </c>
@@ -2762,14 +2834,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>6</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="45"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="5">
         <v>44872</v>
       </c>
@@ -2780,19 +2852,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>7</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="29" t="s">
         <v>13</v>
@@ -2810,14 +2882,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>8</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="46"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="5">
         <v>44881</v>
       </c>
@@ -2828,21 +2900,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="61">
+    <row r="36" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="63">
         <v>9</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="38"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="62"/>
-      <c r="B37" s="37">
-        <v>9.1</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="64"/>
+      <c r="B37" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>67</v>
@@ -2850,133 +2922,133 @@
       <c r="D37" s="5">
         <v>44882</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="68" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="62"/>
-      <c r="B38" s="37">
-        <v>9.1999999999999993</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="64"/>
+      <c r="B38" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="58">
+      <c r="D38" s="71">
         <v>44883</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="62"/>
-      <c r="B39" s="37">
-        <v>9.3000000000000007</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="64"/>
+      <c r="B39" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="56"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="62"/>
-      <c r="B40" s="37">
-        <v>9.4</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="64"/>
+      <c r="B40" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="56"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="62"/>
-      <c r="B41" s="37">
-        <v>9.5</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="64"/>
+      <c r="B41" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="56"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="62"/>
-      <c r="B42" s="37">
-        <v>9.6</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="64"/>
+      <c r="B42" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="56"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="62"/>
-      <c r="B43" s="37">
-        <v>9.6999999999999993</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="64"/>
+      <c r="B43" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="70">
         <v>44884</v>
       </c>
-      <c r="E43" s="56"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="62"/>
-      <c r="B44" s="37">
-        <v>9.8000000000000007</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="64"/>
+      <c r="B44" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="56"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="69"/>
       <c r="F44" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="62"/>
-      <c r="B45" s="37">
-        <v>9.9</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="64"/>
+      <c r="B45" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="56"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="69"/>
       <c r="F45" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="62"/>
-      <c r="B46" s="37">
-        <v>10</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="64"/>
+      <c r="B46" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>61</v>
@@ -2984,15 +3056,15 @@
       <c r="D46" s="32">
         <v>44886</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="69"/>
       <c r="F46" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="62"/>
-      <c r="B47" s="37">
-        <v>10.1</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="64"/>
+      <c r="B47" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>62</v>
@@ -3000,75 +3072,75 @@
       <c r="D47" s="32">
         <v>44889</v>
       </c>
-      <c r="E47" s="56"/>
+      <c r="E47" s="69"/>
       <c r="F47" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="62"/>
-      <c r="B48" s="37">
-        <v>10.199999999999999</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="64"/>
+      <c r="B48" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="62"/>
-      <c r="B49" s="37">
-        <v>10.3</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="64"/>
+      <c r="B49" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="56"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="62"/>
-      <c r="B50" s="37">
-        <v>10.4</v>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="64"/>
+      <c r="B50" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="56"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="69"/>
       <c r="F50" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="62"/>
-      <c r="B51" s="37">
-        <v>10.5</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="64"/>
+      <c r="B51" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="56"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>10</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="39"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="5">
         <v>44881</v>
       </c>
@@ -3077,49 +3149,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>11</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="39"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="32"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="3">
-        <v>11.1</v>
+      <c r="B54" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="57">
+      <c r="D54" s="70">
         <v>44886</v>
       </c>
-      <c r="E54" s="56" t="s">
+      <c r="E54" s="69" t="s">
         <v>42</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="3">
-        <v>11.2</v>
+      <c r="B55" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="56"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3127,7 +3199,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3135,7 +3207,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3143,7 +3215,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3151,7 +3223,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3159,7 +3231,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3167,7 +3239,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3175,7 +3247,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3183,7 +3255,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3191,7 +3263,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3199,7 +3271,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3207,7 +3279,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3215,7 +3287,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3223,7 +3295,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3231,7 +3303,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3239,7 +3311,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3247,7 +3319,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3255,7 +3327,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3263,7 +3335,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3271,7 +3343,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3279,7 +3351,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3287,7 +3359,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3295,7 +3367,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3303,7 +3375,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3311,7 +3383,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3319,7 +3391,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3327,7 +3399,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3335,7 +3407,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3343,7 +3415,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3351,7 +3423,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3359,7 +3431,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3367,7 +3439,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3375,7 +3447,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3383,7 +3455,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3391,7 +3463,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3399,7 +3471,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3407,7 +3479,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3415,7 +3487,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3423,7 +3495,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3431,7 +3503,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3439,7 +3511,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3447,7 +3519,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3455,7 +3527,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3463,7 +3535,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3471,7 +3543,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3479,7 +3551,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3487,7 +3559,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3495,7 +3567,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3503,7 +3575,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3511,7 +3583,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3519,7 +3591,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3527,7 +3599,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3535,7 +3607,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3543,7 +3615,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3551,7 +3623,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3559,7 +3631,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3567,7 +3639,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3575,7 +3647,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3583,7 +3655,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3591,7 +3663,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3599,7 +3671,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3607,7 +3679,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3615,7 +3687,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3623,7 +3695,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3631,7 +3703,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3639,7 +3711,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3647,7 +3719,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3655,7 +3727,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3663,7 +3735,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3671,7 +3743,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3679,7 +3751,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3687,7 +3759,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3695,7 +3767,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3703,7 +3775,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3711,7 +3783,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3719,7 +3791,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3727,7 +3799,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3735,7 +3807,7 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3743,7 +3815,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3751,7 +3823,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3759,7 +3831,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3767,7 +3839,7 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3775,7 +3847,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3783,7 +3855,7 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3791,7 +3863,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3799,7 +3871,7 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3807,7 +3879,7 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3815,7 +3887,7 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3823,7 +3895,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3831,7 +3903,7 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3839,7 +3911,7 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3847,7 +3919,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3855,7 +3927,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3863,7 +3935,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3871,7 +3943,7 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3879,7 +3951,7 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3887,7 +3959,7 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3895,7 +3967,7 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3903,7 +3975,7 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3911,7 +3983,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3919,7 +3991,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3927,7 +3999,7 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3935,7 +4007,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3943,7 +4015,7 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3951,7 +4023,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3959,7 +4031,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3967,7 +4039,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3975,7 +4047,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3983,7 +4055,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3991,7 +4063,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3999,7 +4071,7 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4007,7 +4079,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4015,7 +4087,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4023,7 +4095,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -4031,7 +4103,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4039,7 +4111,7 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -4047,7 +4119,7 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4055,7 +4127,7 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -4063,7 +4135,7 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -4071,7 +4143,7 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4079,7 +4151,7 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4087,7 +4159,7 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4095,7 +4167,7 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4103,7 +4175,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4111,7 +4183,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4119,7 +4191,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4127,7 +4199,7 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4135,7 +4207,7 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4143,7 +4215,7 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4153,17 +4225,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E15:E25"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A14:A27"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E37:E51"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D48:D51"/>
     <mergeCell ref="A36:A51"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B52:C52"/>
@@ -4175,12 +4242,17 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E37:E51"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E15:E25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A14:A27"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG CẬP NHẬT VÀ THEO DÕI CÁC VẤN ĐỀ PHÁT SING TRONG KÌ CẦN XỬ LÝ.xlsx
+++ b/Phòng kỹ thuật/Báo cáo/BÁO CÁO THÁNG 11/KPI/BÁO CÁO KPI/2. Xử lý các vấn đề Kỹ thuật/BẢNG CẬP NHẬT VÀ THEO DÕI CÁC VẤN ĐỀ PHÁT SING TRONG KÌ CẦN XỬ LÝ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\Báo cáo\BÁO CÁO THÁNG 11\KPI\BÁO CÁO KPI\2. Xử lý các vấn đề Kỹ thuật\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26830A-6051-4D79-92F4-9900922EC266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9F01E-AB65-4965-9DE0-7522F20834B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Viết danh sách các sản phẩm đã bán cho Huge Bamboo (tên sản phẩm, thành phần tên chất, nồng độ, số cas)</t>
-  </si>
-  <si>
-    <t>Tìm CTPT và số cas cho các chất theo yêu cầu của phòng tổng vụ:</t>
-  </si>
-  <si>
-    <t>10.1</t>
   </si>
   <si>
     <t>3.1</t>
@@ -187,9 +181,6 @@
     <t xml:space="preserve">BẢNG CẬP NHẬT CÁC VẤN ĐỀ PHÁT SING TRONG KÌ CẦN XỬ LÝ </t>
   </si>
   <si>
-    <t>Tìm CTPT và số cas cho các chất theo yêu cầu của phòng tổng vụ</t>
-  </si>
-  <si>
     <t>Xét xem sản phẩm SA-62 có đủ tiêu chuẩn làm chứng nhận OEKO-TEX không.</t>
   </si>
   <si>
@@ -232,15 +223,6 @@
     <t>3.13</t>
   </si>
   <si>
-    <t>3 phiếu</t>
-  </si>
-  <si>
-    <t>4 phiếu</t>
-  </si>
-  <si>
-    <t>5 phiếu</t>
-  </si>
-  <si>
     <t>H-71 (NCC08) Urea (HX)</t>
   </si>
   <si>
@@ -271,36 +253,12 @@
     <t>H-525 (NCC29) NP-915E (HX)</t>
   </si>
   <si>
-    <t>H-585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-583 </t>
-  </si>
-  <si>
-    <t>H-587</t>
-  </si>
-  <si>
-    <t>H-628</t>
-  </si>
-  <si>
     <t>H-339 (NCC06) Potassium persulfate (QX)</t>
   </si>
   <si>
     <t>Huntex OW-222</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
@@ -356,6 +314,92 @@
   </si>
   <si>
     <t>11.2</t>
+  </si>
+  <si>
+    <t>Viết tiêu chuẩn BS cho các chất cần đặt hàng:
+H-141 (Ablutex RTM), H-231 (Ablutex D600), H-233 (sinopol 1109).</t>
+  </si>
+  <si>
+    <t>9.16</t>
+  </si>
+  <si>
+    <t>Huntex UVP-222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm nội dung trong nhãn sản phẩm </t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>Huntex ITS-507 (H-507)</t>
+  </si>
+  <si>
+    <t>Huntex SLY-02 (HMBTSCT-07)</t>
+  </si>
+  <si>
+    <t>Dịch SDS cho phòng thu mua (PTM)</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-330 AFINE (Chất tăng trắng huỳnh quang) </t>
+  </si>
+  <si>
+    <t>VN-UVITEX ER-RS (Chất tăng trắng huỳnh quang)</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Benzyl benzoat</t>
+  </si>
+  <si>
+    <t>Tìm CTPT và số cas cho các chất theo yêu cầu của phòng thu mua:</t>
+  </si>
+  <si>
+    <t>Tìm CTPT và số cas cho các chất theo yêu cầu của phòng thu mua</t>
+  </si>
+  <si>
+    <t>H-583 (NCC29) SS-8380 (HX)</t>
+  </si>
+  <si>
+    <t>H-585 (NCC29) 3T-60 (HX)</t>
+  </si>
+  <si>
+    <t>H-587 (NCC29) 900 TYPE (HX)</t>
+  </si>
+  <si>
+    <t>H-628 (NCC29) NP-910A(30%) (HX)</t>
+  </si>
+  <si>
+    <t>Dịch SDS TA, TV cho phòng thu mua (PTM)</t>
+  </si>
+  <si>
+    <t>Giải quyết vấn đề kỹ thuật: Khách hàng Vĩnh Phương yêu cầu phải có chứng nhận ZDHC cho sản phẩm hồ sợi MB-115.</t>
+  </si>
+  <si>
+    <t>A.Quốc Minh</t>
+  </si>
+  <si>
+    <t>Đang thực hiện</t>
+  </si>
+  <si>
+    <t>S.Hùng</t>
+  </si>
+  <si>
+    <t>Tính nồng độ ppm của HCHO trong 1 kg sản phẩm
+CMHT-16</t>
   </si>
 </sst>
 </file>
@@ -419,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -608,19 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -653,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,9 +736,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,16 +749,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,12 +767,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -763,6 +779,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,9 +839,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -814,13 +863,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,16 +905,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,23 +917,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1197,49 +1261,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1252,75 +1316,75 @@
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="40"/>
+      <c r="B8" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="5">
         <v>44867</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="5">
         <v>44868</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="30">
-        <v>4.0999999999999996</v>
+      <c r="A12" s="56"/>
+      <c r="B12" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -1329,13 +1393,13 @@
         <v>44867</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="31">
-        <v>4.2</v>
+      <c r="A13" s="57"/>
+      <c r="B13" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -1344,188 +1408,213 @@
         <v>44870</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>5</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="5">
         <v>44870</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="5">
         <v>44872</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="54"/>
+      <c r="B16" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="55"/>
+      <c r="B17" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="61"/>
       <c r="D17" s="5">
         <v>44881</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="48"/>
+      <c r="B18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="54"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="47"/>
+      <c r="B19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="45"/>
       <c r="D19" s="5">
         <v>44881</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>12</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
+        <v>13</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="38">
+        <v>44894</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
+        <v>14</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="38">
+        <v>44894</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2366,10 +2455,9 @@
       <c r="E151" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+  <mergeCells count="21">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -2380,11 +2468,15 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2393,70 +2485,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="A1" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -2470,15 +2562,15 @@
       <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>10</v>
@@ -2488,748 +2580,762 @@
       <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="40"/>
+      <c r="B8" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="5">
         <v>44867</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+    <row r="9" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
         <v>2</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="5">
+        <v>44890</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="74">
+        <v>3</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44866</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44868</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="25"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44869</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="59">
-        <v>3</v>
-      </c>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44872</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="75"/>
+      <c r="B15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44873</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="73"/>
+      <c r="B16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19">
+        <v>44875</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="19">
+        <v>44879</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="73"/>
+      <c r="B18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="19">
+        <v>44880</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="73"/>
+      <c r="B19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19">
+        <v>44882</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="73"/>
+      <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19">
+        <v>44886</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="19">
+        <v>44888</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="56"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="73"/>
+      <c r="B22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="35">
+        <v>44891</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="56"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="76"/>
+      <c r="B23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="35">
+        <v>44893</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="57"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="77">
+        <v>4</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="77"/>
+      <c r="B25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44867</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="77"/>
+      <c r="B26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="11">
+        <v>44870</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>5</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8">
-        <v>44866</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="B27" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="5">
+        <v>44870</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>6</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="5">
+        <v>44872</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>7</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8">
-        <v>44868</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="15" t="s">
+      <c r="D30" s="11">
+        <v>44873</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8">
-        <v>44869</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8">
-        <v>44872</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8">
-        <v>44873</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="20">
-        <v>44875</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="20">
-        <v>44879</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="20">
-        <v>44880</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="20">
-        <v>44882</v>
-      </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="20">
-        <v>44886</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="20">
-        <v>44888</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="65">
-        <v>4</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="8">
-        <v>44867</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
-      <c r="B30" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="10" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="42">
+        <v>44893</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>8</v>
       </c>
-      <c r="D30" s="11">
-        <v>44870</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>5</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="5">
-        <v>44870</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>6</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="54"/>
+      <c r="B32" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="61"/>
       <c r="D32" s="5">
-        <v>44872</v>
-      </c>
-      <c r="E32" s="5" t="s">
+        <v>44881</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>7</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="11">
-        <v>44873</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="16" t="s">
+    <row r="33" spans="1:6" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="65">
+        <v>9</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64"/>
+      <c r="B34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="5">
+        <v>44882</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>8</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="5">
-        <v>44881</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63">
-        <v>9</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="64"/>
+      <c r="B35" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="80">
+        <v>44883</v>
+      </c>
+      <c r="E35" s="72"/>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64"/>
+      <c r="B36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="81"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="56"/>
+    </row>
+    <row r="37" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
-      <c r="B37" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="5">
-        <v>44882</v>
-      </c>
-      <c r="E37" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B37" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="81"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="56"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
-      <c r="B38" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="71">
-        <v>44883</v>
-      </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B38" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="81"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="56"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
-      <c r="B39" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="81"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="56"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
-      <c r="B40" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B40" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="70">
+        <v>44884</v>
+      </c>
+      <c r="E40" s="72"/>
+      <c r="F40" s="56"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
-      <c r="B41" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B41" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="70"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
-      <c r="B42" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B42" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="70"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
-      <c r="B43" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="70">
-        <v>44884</v>
-      </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B43" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="29">
+        <v>44886</v>
+      </c>
+      <c r="E43" s="72"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="64"/>
-      <c r="B44" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B44" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="29">
+        <v>44889</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
-      <c r="B45" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B45" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="70">
+        <v>44890</v>
+      </c>
+      <c r="E45" s="72"/>
+      <c r="F45" s="56"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
-      <c r="B46" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="32">
-        <v>44886</v>
-      </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B46" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="56"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
-      <c r="B47" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="32">
-        <v>44889</v>
-      </c>
-      <c r="E47" s="69"/>
-      <c r="F47" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="B47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="56"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
-      <c r="B48" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="26" t="s">
+      <c r="B48" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="82"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="37">
+        <v>44893</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="57"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>10</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="5">
+        <v>44881</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="64"/>
-      <c r="B49" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="26" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>11</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="70">
+        <v>44886</v>
+      </c>
+      <c r="E52" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="64"/>
-      <c r="B50" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="64"/>
-      <c r="B51" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>10</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="5">
-        <v>44881</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>11</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="32"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="70"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
-        <v>90</v>
+      <c r="B54" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D54" s="70">
-        <v>44886</v>
-      </c>
-      <c r="E54" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44890</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+    </row>
+    <row r="55" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>68</v>
+      <c r="B55" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="D55" s="70"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="44">
+        <v>12</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="45"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="B57" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="62">
+        <v>44893</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="B58" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="66"/>
+    </row>
+    <row r="59" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="39">
+        <v>13</v>
+      </c>
+      <c r="B59" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="83"/>
+      <c r="D59" s="38">
+        <v>44894</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="39">
+        <v>14</v>
+      </c>
+      <c r="B60" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="83"/>
+      <c r="D60" s="38">
+        <v>44894</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
@@ -4207,52 +4313,47 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E37:E51"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A28:A30"/>
+  <mergeCells count="39">
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E15:E25"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A14:A27"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A10:A23"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E10:E23"/>
+    <mergeCell ref="F10:F23"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F34:F49"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="D40:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
